--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,12 +39,54 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>Learnt about data structures and arraylist</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning basics and exploring camunda </t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>practiced and revised what was taught in training</t>
+  </si>
+  <si>
+    <t>bpm work</t>
+  </si>
+  <si>
+    <t>completed my first camunda forex card process</t>
+  </si>
+  <si>
+    <t>practiced arraylist and some data structure basics</t>
+  </si>
+  <si>
+    <t>camunda</t>
+  </si>
+  <si>
+    <t>practiced bpm flow in camunda and revised arraylist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -247,6 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,7 +394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,39 +571,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="21">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,994 +620,1054 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -1581,32 +1684,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="21">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1623,994 +1726,994 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>SlNo</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>practiced bpm flow in camunda and revised arraylist</t>
+  </si>
+  <si>
+    <t>1.5hr</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,7 +585,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -83,6 +83,36 @@
   </si>
   <si>
     <t>1.5hr</t>
+  </si>
+  <si>
+    <t>camunda review</t>
+  </si>
+  <si>
+    <t>camunda review session</t>
+  </si>
+  <si>
+    <t>linked list,stack,queue,hashmap</t>
+  </si>
+  <si>
+    <t>presentation camunda</t>
+  </si>
+  <si>
+    <t>Cloud kitchen camunda flow process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task  </t>
+  </si>
+  <si>
+    <t>hashmap program</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>revision on linkedlist stack queue</t>
   </si>
 </sst>
 </file>
@@ -585,7 +615,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,39 +756,89 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -604,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +615,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>SlNo</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>revision on linkedlist stack queue</t>
+  </si>
+  <si>
+    <t>Learnt about HashTable,packages&amp;intro about web technologies</t>
+  </si>
+  <si>
+    <t>2.5hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practiced task given in hashtable </t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>revised corejava basics and trying to learn camunda 3hrs</t>
+  </si>
+  <si>
+    <t>Exploring</t>
+  </si>
+  <si>
+    <t>Exploring things about web technologies</t>
   </si>
 </sst>
 </file>
@@ -604,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +636,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,32 +862,70 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>SlNo</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>Exploring things about web technologies</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training session </t>
+  </si>
+  <si>
+    <t>HTML coding for reg,login,para</t>
+  </si>
+  <si>
+    <t>revised previous training and learnt web tech basic3hrs</t>
   </si>
 </sst>
 </file>
@@ -625,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,7 +648,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,24 +940,52 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>revised previous training and learnt web tech basic3hrs</t>
+  </si>
+  <si>
+    <t>JBPM overview</t>
+  </si>
+  <si>
+    <t>JBPM session</t>
+  </si>
+  <si>
+    <t>webpage creation HTML 5pages</t>
+  </si>
+  <si>
+    <t>learnt html tags and css basics and j2ee basics</t>
   </si>
 </sst>
 </file>
@@ -637,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,32 +1001,72 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>SlNo</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>learnt html tags and css basics and j2ee basics</t>
+  </si>
+  <si>
+    <t>Collection concept</t>
+  </si>
+  <si>
+    <t>Revising core java concept</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,7 +666,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,18 +1075,38 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>SlNo</t>
   </si>
@@ -43,27 +43,18 @@
     <t>Training</t>
   </si>
   <si>
-    <t>3hrs</t>
-  </si>
-  <si>
     <t>Learnt about data structures and arraylist</t>
   </si>
   <si>
     <t>practice</t>
   </si>
   <si>
-    <t>4hrs</t>
-  </si>
-  <si>
     <t>Learning</t>
   </si>
   <si>
     <t xml:space="preserve">learning basics and exploring camunda </t>
   </si>
   <si>
-    <t>1hr</t>
-  </si>
-  <si>
     <t>practiced and revised what was taught in training</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>practiced bpm flow in camunda and revised arraylist</t>
   </si>
   <si>
-    <t>1.5hr</t>
-  </si>
-  <si>
     <t>camunda review</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>hashmap program</t>
   </si>
   <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
     <t>learning</t>
   </si>
   <si>
@@ -118,15 +103,9 @@
     <t>Learnt about HashTable,packages&amp;intro about web technologies</t>
   </si>
   <si>
-    <t>2.5hrs</t>
-  </si>
-  <si>
     <t xml:space="preserve">practiced task given in hashtable </t>
   </si>
   <si>
-    <t>2hrs</t>
-  </si>
-  <si>
     <t>revised corejava basics and trying to learn camunda 3hrs</t>
   </si>
   <si>
@@ -164,6 +143,18 @@
   </si>
   <si>
     <t>Revising core java concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE servlet webpage creation </t>
+  </si>
+  <si>
+    <t>learnt basic in servlet and j2ee eclipse</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>revised core java and data structure topics</t>
   </si>
 </sst>
 </file>
@@ -665,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -729,13 +720,13 @@
         <v>44351</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -746,13 +737,13 @@
         <v>44351</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -763,13 +754,13 @@
         <v>44352</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -780,13 +771,13 @@
         <v>44352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -797,13 +788,13 @@
         <v>44352</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -814,13 +805,13 @@
         <v>44354</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -834,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -848,13 +839,13 @@
         <v>44354</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -865,13 +856,13 @@
         <v>44354</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -882,13 +873,13 @@
         <v>44354</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -902,10 +893,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -916,13 +907,13 @@
         <v>44355</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -933,12 +924,14 @@
         <v>44355</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">
@@ -948,13 +941,13 @@
         <v>44355</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -968,10 +961,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -982,13 +975,13 @@
         <v>44356</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -999,12 +992,14 @@
         <v>44356</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">
@@ -1014,13 +1009,13 @@
         <v>44357</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -1034,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -1048,13 +1043,13 @@
         <v>44357</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -1065,13 +1060,13 @@
         <v>44357</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1085,10 +1080,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -1099,35 +1094,65 @@
         <v>44358</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>SlNo</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>revised core java and data structure topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Training session </t>
+  </si>
+  <si>
+    <t>HTML &amp;CSS concept</t>
+  </si>
+  <si>
+    <t>interface concept</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,37 +1164,83 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>SlNo</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>interface concept</t>
+  </si>
+  <si>
+    <t>learnt  webpage development ,thread,interface</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,7 +669,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1241,8 +1244,12 @@
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>SlNo</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>learnt  webpage development ,thread,interface</t>
+  </si>
+  <si>
+    <t>Java &amp; jbpm session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jbpm installation and jbpm basic </t>
+  </si>
+  <si>
+    <t>jbpm pdf revision</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,24 +1261,52 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>SlNo</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>jbpm pdf revision</t>
+  </si>
+  <si>
+    <t>JBPM exercise revision and arraylist revision</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,7 +681,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1307,21 +1310,43 @@
       <c r="E38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>SlNo</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>JBPM exercise revision and arraylist revision</t>
+  </si>
+  <si>
+    <t>Jbpm installation and practice</t>
+  </si>
+  <si>
+    <t>Arraylist creation for namelist and print using string length</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>JBPM doubt clearing session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection concept revision </t>
   </si>
 </sst>
 </file>
@@ -670,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,32 +1364,72 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>SlNo</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t xml:space="preserve">Collection concept revision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">html css concept revision </t>
+  </si>
+  <si>
+    <t>jbpm practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arraylist </t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,7 +705,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1432,25 +1441,55 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>SlNo</t>
   </si>
@@ -202,7 +202,13 @@
     <t>jbpm practice</t>
   </si>
   <si>
-    <t xml:space="preserve">arraylist </t>
+    <t>arraylist and practiced previous topics</t>
+  </si>
+  <si>
+    <t>list iterator and set basics</t>
+  </si>
+  <si>
+    <t>jbpm &amp; collection practice</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,29 +1494,59 @@
         <v>60</v>
       </c>
       <c r="F47" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
-    </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>SlNo</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>jbpm &amp; collection practice</t>
+  </si>
+  <si>
+    <t>Java training session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treeset task and revision </t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1549,18 +1555,38 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>SlNo</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t xml:space="preserve">Treeset task and revision </t>
+  </si>
+  <si>
+    <t>Treeset string concept and hashmap concept</t>
+  </si>
+  <si>
+    <t>JBPM set and get concept and execution prrocess</t>
+  </si>
+  <si>
+    <t>java session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance java -servlet server </t>
+  </si>
+  <si>
+    <t>Variables,sub process,embedded process</t>
+  </si>
+  <si>
+    <t>jbpm practiced all tasks taught in session</t>
+  </si>
+  <si>
+    <t>Exploring servlet and server &amp; html revision</t>
   </si>
 </sst>
 </file>
@@ -716,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1589,46 +1610,106 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="10">
+        <v>44372</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>SlNo</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Exploring servlet and server &amp; html revision</t>
+  </si>
+  <si>
+    <t>HTML  &amp; SQL basics explored</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1688,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F57" s="3">
         <v>3</v>
@@ -1712,18 +1715,38 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44373</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="10">
+        <v>44373</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>SlNo</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>HTML  &amp; SQL basics explored</t>
+  </si>
+  <si>
+    <t>JBPM practice</t>
+  </si>
+  <si>
+    <t>User task and multiinstance practice</t>
+  </si>
+  <si>
+    <t>SQL and HTML revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM exploring user task </t>
   </si>
 </sst>
 </file>
@@ -730,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1388,7 +1400,7 @@
         <v>49</v>
       </c>
       <c r="F39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -1439,7 +1451,7 @@
         <v>54</v>
       </c>
       <c r="F42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -1473,7 +1485,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -1749,32 +1761,72 @@
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="10">
+        <v>44375</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>SlNo</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t xml:space="preserve">JBPM exploring user task </t>
+  </si>
+  <si>
+    <t>REST API,Java,JBPM Sessions</t>
+  </si>
+  <si>
+    <t>Data object,signals,timer practice</t>
+  </si>
+  <si>
+    <t>java practice</t>
+  </si>
+  <si>
+    <t>oracle installation and servlet  revision</t>
   </si>
 </sst>
 </file>
@@ -742,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1829,25 +1841,55 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="2"/>

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>SlNo</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>oracle installation and servlet  revision</t>
+  </si>
+  <si>
+    <t>Java,jbpm(internal session)</t>
+  </si>
+  <si>
+    <t>jbpm practice&amp; java practice</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,7 +771,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,18 +1898,38 @@
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="2"/>
